--- a/Prob et stat/Labos7.xlsx
+++ b/Prob et stat/Labos7.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1334725\Dropbox\CEGEP\Prob et stat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cegep\Prob et stat\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,7 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Échantillon" sheetId="1" r:id="rId1"/>
-    <sheet name="Labos7" sheetId="2" r:id="rId2"/>
+    <sheet name="Labo7" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="Activité_sportive__heures_par_semaine">Échantillon!$U$3:$U$366</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8843" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8843" uniqueCount="152">
   <si>
     <t>Numéro</t>
   </si>
@@ -457,12 +457,6 @@
     <t>Source : Base de données MQ en automne 2014</t>
   </si>
   <si>
-    <t>Tableau de mesures de la variable "travail rémunéré" chez les étudiants collégiaux du cour de MQ, automne 2014</t>
-  </si>
-  <si>
-    <t>Réseaux sociaux (min/jour)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Répartition des 364 étudiants collégiaux du cours de MQ selon le nombre de minute par jour sur les réseaux sociaux, automne 2014 
 </t>
   </si>
@@ -523,6 +517,9 @@
   <si>
     <t>2eme quintile</t>
   </si>
+  <si>
+    <t>Tableau de mesures de la variable "réseaux sociaux" chez les étudiants collégiaux du cour de MQ, automne 2014</t>
+  </si>
 </sst>
 </file>
 
@@ -530,7 +527,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="173" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -944,9 +941,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -964,6 +958,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -984,20 +987,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="25">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
@@ -1143,7 +1140,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Labos7!$B$12:$B$21</c:f>
+              <c:f>Labo7!$B$12:$B$21</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -1181,7 +1178,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Labos7!$D$12:$D$21</c:f>
+              <c:f>Labo7!$D$12:$D$21</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1228,11 +1225,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="311380824"/>
-        <c:axId val="399264432"/>
+        <c:axId val="331971872"/>
+        <c:axId val="331971088"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="311380824"/>
+        <c:axId val="331971872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1309,7 +1306,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="399264432"/>
+        <c:crossAx val="331971088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1317,7 +1314,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="399264432"/>
+        <c:axId val="331971088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1414,7 +1411,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="311380824"/>
+        <c:crossAx val="331971872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -2087,14 +2084,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>38098</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>838200</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:colOff>847725</xdr:colOff>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2104,7 +2101,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1266825" y="6657973"/>
+          <a:off x="1276350" y="7800973"/>
           <a:ext cx="2543175" cy="1066801"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2329,7 +2326,7 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
             <a:rPr lang="fr-CA" sz="1100"/>
-            <a:t>0           5</a:t>
+            <a:t>0          50</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="fr-CA" sz="1100">
@@ -2338,11 +2335,11 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>           </a:t>
+            <a:t>       </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="fr-CA" sz="1100"/>
-            <a:t>10</a:t>
+            <a:t>100</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="fr-CA" sz="1100">
@@ -2351,11 +2348,11 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>          </a:t>
+            <a:t>      </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="fr-CA" sz="1100"/>
-            <a:t>15</a:t>
+            <a:t>150</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="fr-CA" sz="1100">
@@ -2364,11 +2361,11 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>         </a:t>
+            <a:t>      </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="fr-CA" sz="1100"/>
-            <a:t>20</a:t>
+            <a:t>200</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="fr-CA" sz="1100">
@@ -2377,11 +2374,16 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>          </a:t>
+            <a:t>   </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="fr-CA" sz="1100"/>
-            <a:t>25</a:t>
+            <a:rPr lang="fr-CA" sz="1100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="fr-CA" sz="1100">
@@ -2390,11 +2392,11 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>         </a:t>
+            <a:t>  </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="fr-CA" sz="1100"/>
-            <a:t>30</a:t>
+            <a:t>250</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="fr-CA" sz="1100">
@@ -2403,11 +2405,11 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>          </a:t>
+            <a:t>      </a:t>
           </a:r>
           <a:r>
             <a:rPr lang="fr-CA" sz="1100"/>
-            <a:t>35</a:t>
+            <a:t>300</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="fr-CA" sz="1100">
@@ -2416,7 +2418,20 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>         40          45</a:t>
+            <a:t>     </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100"/>
+            <a:t>350</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>      400      450      500</a:t>
           </a:r>
           <a:endParaRPr lang="fr-CA" sz="1100"/>
         </a:p>
@@ -46309,8 +46324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N101"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46332,31 +46347,31 @@
       <c r="N2" s="7"/>
     </row>
     <row r="9" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="38" t="s">
-        <v>133</v>
-      </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
+      <c r="B9" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
     </row>
     <row r="10" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
     </row>
-    <row r="11" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="C11" s="22" t="s">
+    <row r="11" spans="2:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="22" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="36" t="s">
-        <v>135</v>
+      <c r="B12" s="40" t="s">
+        <v>133</v>
       </c>
       <c r="C12" s="15">
         <v>153</v>
@@ -46366,8 +46381,8 @@
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="37" t="s">
-        <v>136</v>
+      <c r="B13" s="41" t="s">
+        <v>134</v>
       </c>
       <c r="C13" s="14">
         <v>105</v>
@@ -46377,8 +46392,8 @@
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="37" t="s">
-        <v>137</v>
+      <c r="B14" s="41" t="s">
+        <v>135</v>
       </c>
       <c r="C14" s="14">
         <v>50</v>
@@ -46388,8 +46403,8 @@
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="37" t="s">
-        <v>138</v>
+      <c r="B15" s="41" t="s">
+        <v>136</v>
       </c>
       <c r="C15" s="14">
         <v>27</v>
@@ -46399,8 +46414,8 @@
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="37" t="s">
-        <v>139</v>
+      <c r="B16" s="41" t="s">
+        <v>137</v>
       </c>
       <c r="C16" s="14">
         <v>15</v>
@@ -46410,8 +46425,8 @@
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="37" t="s">
-        <v>140</v>
+      <c r="B17" s="41" t="s">
+        <v>138</v>
       </c>
       <c r="C17" s="14">
         <v>1</v>
@@ -46421,8 +46436,8 @@
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="37" t="s">
-        <v>141</v>
+      <c r="B18" s="41" t="s">
+        <v>139</v>
       </c>
       <c r="C18" s="14">
         <v>7</v>
@@ -46432,8 +46447,8 @@
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="37" t="s">
-        <v>142</v>
+      <c r="B19" s="41" t="s">
+        <v>140</v>
       </c>
       <c r="C19" s="14">
         <v>2</v>
@@ -46443,8 +46458,8 @@
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="37" t="s">
-        <v>143</v>
+      <c r="B20" s="41" t="s">
+        <v>141</v>
       </c>
       <c r="C20" s="14">
         <v>1</v>
@@ -46454,8 +46469,8 @@
       </c>
     </row>
     <row r="21" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="36" t="s">
-        <v>134</v>
+      <c r="B21" s="40" t="s">
+        <v>132</v>
       </c>
       <c r="C21" s="15">
         <v>3</v>
@@ -46484,55 +46499,55 @@
       <c r="E24" s="8"/>
     </row>
     <row r="25" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="C25" s="31"/>
-      <c r="D25" s="24"/>
+      <c r="B25" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="C25" s="35"/>
+      <c r="D25" s="23"/>
       <c r="E25" s="8"/>
     </row>
     <row r="26" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="32"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="25"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="24"/>
       <c r="E26" s="8"/>
     </row>
     <row r="27" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="34"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="25"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="24"/>
       <c r="E27" s="8"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="C28" s="28">
+        <v>142</v>
+      </c>
+      <c r="C28" s="27">
         <f>MIN(C12:C21)</f>
         <v>1</v>
       </c>
-      <c r="D28" s="25"/>
+      <c r="D28" s="24"/>
       <c r="E28" s="8"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C29" s="10">
         <f>MAX(C12:C21)</f>
         <v>153</v>
       </c>
-      <c r="D29" s="26"/>
+      <c r="D29" s="25"/>
       <c r="E29" s="8"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="C30" s="29">
-        <v>60</v>
-      </c>
-      <c r="D30" s="24"/>
+      <c r="C30" s="28">
+        <v>60</v>
+      </c>
+      <c r="D30" s="23"/>
       <c r="E30" s="8"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
@@ -46543,7 +46558,7 @@
         <f>AVERAGE(C12:C21)</f>
         <v>36.4</v>
       </c>
-      <c r="D31" s="27"/>
+      <c r="D31" s="26"/>
       <c r="E31" s="8"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
@@ -46560,9 +46575,9 @@
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="C33" s="42">
+        <v>144</v>
+      </c>
+      <c r="C33" s="32">
         <f>_xlfn.STDEV.S(Réseaux_sociaux__minutes_par_jour)</f>
         <v>81.110796095847519</v>
       </c>
@@ -46571,7 +46586,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="8"/>
@@ -46579,7 +46594,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B35" s="12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C35" s="10">
         <f>MAX(C15:C24)</f>
@@ -46589,7 +46604,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C36" s="10">
         <f>_xlfn.PERCENTILE.EXC(Réseaux_sociaux__minutes_par_jour,0.3)</f>
@@ -46599,7 +46614,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B37" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C37" s="10">
         <f>_xlfn.QUARTILE.EXC(Réseaux_sociaux__minutes_par_jour,3)</f>
@@ -46609,7 +46624,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B38" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C38" s="10">
         <f>_xlfn.PERCENTILE.EXC(Réseaux_sociaux__minutes_par_jour,0.7)</f>
@@ -46618,7 +46633,7 @@
     </row>
     <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C39" s="10">
         <f>_xlfn.PERCENTILE.EXC(Réseaux_sociaux__minutes_par_jour,0.4)</f>
@@ -46634,208 +46649,209 @@
       <c r="C41" s="8"/>
     </row>
     <row r="62" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K62" s="40"/>
-      <c r="L62" s="39"/>
-      <c r="M62" s="41"/>
+      <c r="K62" s="30"/>
+      <c r="L62" s="29"/>
+      <c r="M62" s="31"/>
     </row>
     <row r="63" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K63" s="40"/>
-      <c r="L63" s="39"/>
-      <c r="M63" s="41"/>
+      <c r="K63" s="30"/>
+      <c r="L63" s="29"/>
+      <c r="M63" s="31"/>
     </row>
     <row r="64" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K64" s="40"/>
-      <c r="L64" s="39"/>
-      <c r="M64" s="41"/>
+      <c r="K64" s="30"/>
+      <c r="L64" s="29"/>
+      <c r="M64" s="31"/>
     </row>
     <row r="65" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K65" s="40"/>
-      <c r="L65" s="39"/>
-      <c r="M65" s="41"/>
+      <c r="K65" s="30"/>
+      <c r="L65" s="29"/>
+      <c r="M65" s="31"/>
     </row>
     <row r="66" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K66" s="40"/>
-      <c r="L66" s="39"/>
-      <c r="M66" s="41"/>
+      <c r="K66" s="30"/>
+      <c r="L66" s="29"/>
+      <c r="M66" s="31"/>
     </row>
     <row r="67" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K67" s="40"/>
-      <c r="L67" s="39"/>
-      <c r="M67" s="41"/>
+      <c r="K67" s="30"/>
+      <c r="L67" s="29"/>
+      <c r="M67" s="31"/>
     </row>
     <row r="68" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K68" s="40"/>
-      <c r="L68" s="39"/>
-      <c r="M68" s="41"/>
+      <c r="K68" s="30"/>
+      <c r="L68" s="29"/>
+      <c r="M68" s="31"/>
     </row>
     <row r="69" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K69" s="40"/>
-      <c r="L69" s="39"/>
-      <c r="M69" s="41"/>
+      <c r="K69" s="30"/>
+      <c r="L69" s="29"/>
+      <c r="M69" s="31"/>
     </row>
     <row r="70" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K70" s="40"/>
-      <c r="L70" s="39"/>
-      <c r="M70" s="41"/>
+      <c r="K70" s="30"/>
+      <c r="L70" s="29"/>
+      <c r="M70" s="31"/>
     </row>
     <row r="71" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K71" s="40"/>
-      <c r="L71" s="39"/>
-      <c r="M71" s="41"/>
+      <c r="K71" s="30"/>
+      <c r="L71" s="29"/>
+      <c r="M71" s="31"/>
     </row>
     <row r="72" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K72" s="40"/>
-      <c r="L72" s="39"/>
-      <c r="M72" s="41"/>
+      <c r="K72" s="30"/>
+      <c r="L72" s="29"/>
+      <c r="M72" s="31"/>
     </row>
     <row r="73" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K73" s="40"/>
-      <c r="L73" s="39"/>
-      <c r="M73" s="41"/>
+      <c r="K73" s="30"/>
+      <c r="L73" s="29"/>
+      <c r="M73" s="31"/>
     </row>
     <row r="74" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K74" s="40"/>
-      <c r="L74" s="39"/>
-      <c r="M74" s="41"/>
+      <c r="K74" s="30"/>
+      <c r="L74" s="29"/>
+      <c r="M74" s="31"/>
     </row>
     <row r="75" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K75" s="40"/>
-      <c r="L75" s="39"/>
-      <c r="M75" s="41"/>
+      <c r="K75" s="30"/>
+      <c r="L75" s="29"/>
+      <c r="M75" s="31"/>
     </row>
     <row r="76" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K76" s="40"/>
-      <c r="L76" s="39"/>
-      <c r="M76" s="41"/>
+      <c r="K76" s="30"/>
+      <c r="L76" s="29"/>
+      <c r="M76" s="31"/>
     </row>
     <row r="77" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K77" s="40"/>
-      <c r="L77" s="39"/>
-      <c r="M77" s="41"/>
+      <c r="K77" s="30"/>
+      <c r="L77" s="29"/>
+      <c r="M77" s="31"/>
     </row>
     <row r="78" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K78" s="40"/>
-      <c r="L78" s="39"/>
-      <c r="M78" s="41"/>
+      <c r="K78" s="30"/>
+      <c r="L78" s="29"/>
+      <c r="M78" s="31"/>
     </row>
     <row r="79" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K79" s="40"/>
-      <c r="L79" s="39"/>
-      <c r="M79" s="41"/>
+      <c r="K79" s="30"/>
+      <c r="L79" s="29"/>
+      <c r="M79" s="31"/>
     </row>
     <row r="80" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K80" s="40"/>
-      <c r="L80" s="39"/>
-      <c r="M80" s="41"/>
+      <c r="K80" s="30"/>
+      <c r="L80" s="29"/>
+      <c r="M80" s="31"/>
     </row>
     <row r="81" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K81" s="40"/>
-      <c r="L81" s="39"/>
-      <c r="M81" s="41"/>
+      <c r="K81" s="30"/>
+      <c r="L81" s="29"/>
+      <c r="M81" s="31"/>
     </row>
     <row r="82" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K82" s="40"/>
-      <c r="L82" s="39"/>
-      <c r="M82" s="41"/>
+      <c r="K82" s="30"/>
+      <c r="L82" s="29"/>
+      <c r="M82" s="31"/>
     </row>
     <row r="83" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K83" s="40"/>
-      <c r="L83" s="39"/>
-      <c r="M83" s="41"/>
+      <c r="K83" s="30"/>
+      <c r="L83" s="29"/>
+      <c r="M83" s="31"/>
     </row>
     <row r="84" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K84" s="40"/>
-      <c r="L84" s="39"/>
-      <c r="M84" s="41"/>
+      <c r="K84" s="30"/>
+      <c r="L84" s="29"/>
+      <c r="M84" s="31"/>
     </row>
     <row r="85" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K85" s="40"/>
-      <c r="L85" s="39"/>
-      <c r="M85" s="41"/>
+      <c r="K85" s="30"/>
+      <c r="L85" s="29"/>
+      <c r="M85" s="31"/>
     </row>
     <row r="86" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K86" s="40"/>
-      <c r="L86" s="39"/>
-      <c r="M86" s="41"/>
+      <c r="K86" s="30"/>
+      <c r="L86" s="29"/>
+      <c r="M86" s="31"/>
     </row>
     <row r="87" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K87" s="40"/>
-      <c r="L87" s="39"/>
-      <c r="M87" s="41"/>
+      <c r="K87" s="30"/>
+      <c r="L87" s="29"/>
+      <c r="M87" s="31"/>
     </row>
     <row r="88" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K88" s="40"/>
-      <c r="L88" s="39"/>
-      <c r="M88" s="41"/>
+      <c r="K88" s="30"/>
+      <c r="L88" s="29"/>
+      <c r="M88" s="31"/>
     </row>
     <row r="89" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K89" s="40"/>
-      <c r="L89" s="39"/>
-      <c r="M89" s="41"/>
+      <c r="K89" s="30"/>
+      <c r="L89" s="29"/>
+      <c r="M89" s="31"/>
     </row>
     <row r="90" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K90" s="40"/>
-      <c r="L90" s="39"/>
-      <c r="M90" s="41"/>
+      <c r="K90" s="30"/>
+      <c r="L90" s="29"/>
+      <c r="M90" s="31"/>
     </row>
     <row r="91" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K91" s="40"/>
-      <c r="L91" s="39"/>
-      <c r="M91" s="41"/>
+      <c r="K91" s="30"/>
+      <c r="L91" s="29"/>
+      <c r="M91" s="31"/>
     </row>
     <row r="92" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K92" s="40"/>
-      <c r="L92" s="39"/>
-      <c r="M92" s="41"/>
+      <c r="K92" s="30"/>
+      <c r="L92" s="29"/>
+      <c r="M92" s="31"/>
     </row>
     <row r="93" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K93" s="40"/>
-      <c r="L93" s="39"/>
-      <c r="M93" s="41"/>
+      <c r="K93" s="30"/>
+      <c r="L93" s="29"/>
+      <c r="M93" s="31"/>
     </row>
     <row r="94" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K94" s="40"/>
-      <c r="L94" s="39"/>
-      <c r="M94" s="41"/>
+      <c r="K94" s="30"/>
+      <c r="L94" s="29"/>
+      <c r="M94" s="31"/>
     </row>
     <row r="95" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K95" s="40"/>
-      <c r="L95" s="39"/>
-      <c r="M95" s="41"/>
+      <c r="K95" s="30"/>
+      <c r="L95" s="29"/>
+      <c r="M95" s="31"/>
     </row>
     <row r="96" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K96" s="40"/>
-      <c r="L96" s="39"/>
-      <c r="M96" s="41"/>
+      <c r="K96" s="30"/>
+      <c r="L96" s="29"/>
+      <c r="M96" s="31"/>
     </row>
     <row r="97" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K97" s="40"/>
-      <c r="L97" s="39"/>
-      <c r="M97" s="41"/>
+      <c r="K97" s="30"/>
+      <c r="L97" s="29"/>
+      <c r="M97" s="31"/>
     </row>
     <row r="98" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K98" s="40"/>
-      <c r="L98" s="39"/>
-      <c r="M98" s="41"/>
+      <c r="K98" s="30"/>
+      <c r="L98" s="29"/>
+      <c r="M98" s="31"/>
     </row>
     <row r="99" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K99" s="40"/>
-      <c r="L99" s="39"/>
-      <c r="M99" s="41"/>
+      <c r="K99" s="30"/>
+      <c r="L99" s="29"/>
+      <c r="M99" s="31"/>
     </row>
     <row r="100" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K100" s="40"/>
-      <c r="L100" s="39"/>
-      <c r="M100" s="41"/>
+      <c r="K100" s="30"/>
+      <c r="L100" s="29"/>
+      <c r="M100" s="31"/>
     </row>
     <row r="101" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K101" s="40"/>
-      <c r="L101" s="39"/>
-      <c r="M101" s="41"/>
+      <c r="K101" s="30"/>
+      <c r="L101" s="29"/>
+      <c r="M101" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B9:D10"/>
+    <mergeCell ref="B25:C27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Prob et stat/Labos7.xlsx
+++ b/Prob et stat/Labos7.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8843" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8856" uniqueCount="153">
   <si>
     <t>Numéro</t>
   </si>
@@ -520,6 +520,9 @@
   <si>
     <t>Tableau de mesures de la variable "réseaux sociaux" chez les étudiants collégiaux du cour de MQ, automne 2014</t>
   </si>
+  <si>
+    <t>Pourcentage cumulé</t>
+  </si>
 </sst>
 </file>
 
@@ -529,7 +532,7 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -596,6 +599,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -635,7 +645,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -784,21 +794,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -828,11 +823,50 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -847,28 +881,13 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -894,8 +913,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -923,28 +943,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -956,15 +964,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -986,17 +1000,40 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="25" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="25">
+  <cellStyles count="26">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
@@ -1022,6 +1059,7 @@
     <cellStyle name="Lien hypertexte visité" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Pourcentage" xfId="25" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1119,28 +1157,39 @@
           <c:h val="0.73544393157751831"/>
         </c:manualLayout>
       </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Labo7!$B$12:$B$21</c:f>
+              <c:f>Labo7!$A$11:$A$20</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -1178,7 +1227,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Labo7!$D$12:$D$21</c:f>
+              <c:f>Labo7!$G$11:$G$20</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1186,35 +1235,36 @@
                   <c:v>0.42032967032967034</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.28846153846153844</c:v>
+                  <c:v>0.70879120879120872</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.13736263736263737</c:v>
+                  <c:v>0.84615384615384603</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.4175824175824176E-2</c:v>
+                  <c:v>0.92032967032967017</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.1208791208791208E-2</c:v>
+                  <c:v>0.96153846153846134</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.7472527472527475E-3</c:v>
+                  <c:v>0.96428571428571408</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.9230769230769232E-2</c:v>
+                  <c:v>0.98351648351648335</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.4945054945054949E-3</c:v>
+                  <c:v>0.98901098901098883</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.7472527472527475E-3</c:v>
+                  <c:v>0.99175824175824157</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.241758241758242E-3</c:v>
+                  <c:v>0.99999999999999978</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1224,12 +1274,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="0"/>
-        <c:axId val="331971872"/>
-        <c:axId val="331971088"/>
-      </c:barChart>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="241097760"/>
+        <c:axId val="241098936"/>
+      </c:lineChart>
       <c:catAx>
-        <c:axId val="331971872"/>
+        <c:axId val="241097760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1306,7 +1357,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="331971088"/>
+        <c:crossAx val="241098936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1314,7 +1365,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="331971088"/>
+        <c:axId val="241098936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1411,7 +1462,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="331971872"/>
+        <c:crossAx val="241097760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -2083,16 +2134,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>962025</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>38098</xdr:rowOff>
+      <xdr:rowOff>28573</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>847725</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2101,8 +2152,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1276350" y="7800973"/>
-          <a:ext cx="2543175" cy="1066801"/>
+          <a:off x="962025" y="7791448"/>
+          <a:ext cx="3524250" cy="1066801"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2138,19 +2189,11 @@
         <a:p>
           <a:r>
             <a:rPr lang="fr-CA" sz="1100"/>
-            <a:t>En moyenne, les étudiants de MQ en automne</a:t>
+            <a:t>Dans</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="fr-CA" sz="1100" baseline="0"/>
-            <a:t> 2014 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-CA" sz="1100"/>
-            <a:t>travaille 13,28 heures par semaine dans un travail rémunéré., cependant, la plus grosse partie travail entre 0 et 5h et pour la plupart, ne</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-CA" sz="1100" baseline="0"/>
-            <a:t> font aucune heures dans la semaine.</a:t>
+            <a:t> le cour de MQ en 2014, la pluspart des étudiants passent 1h par jour sur les réseaux sociaux, puis l'écart moyen est d'environ 1h21 passés sur es réseaux sociaux. Les étuidiants ont aussi, en moyenne 0,14 écarts-type et les étudinants présents dans le  centile 30 passent environt 30 minutes par jour sur les réseaux sociaux.</a:t>
           </a:r>
           <a:endParaRPr lang="fr-CA" sz="1100"/>
         </a:p>
@@ -2161,15 +2204,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2192,14 +2235,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1466850</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2208,8 +2251,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7877175" y="5019674"/>
-          <a:ext cx="2533650" cy="1476375"/>
+          <a:off x="7877175" y="7372349"/>
+          <a:ext cx="2533650" cy="1466850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2295,22 +2338,22 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.1125</cdr:x>
-      <cdr:y>0.85893</cdr:y>
+      <cdr:x>0.10276</cdr:x>
+      <cdr:y>0.86861</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.98844</cdr:x>
-      <cdr:y>0.9373</cdr:y>
+      <cdr:x>0.9787</cdr:x>
+      <cdr:y>0.94698</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
-        <cdr:cNvPr id="3" name="ZoneTexte 2"/>
+        <cdr:cNvPr id="5" name="ZoneTexte 1"/>
         <cdr:cNvSpPr txBox="1"/>
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="556141" y="2609851"/>
-          <a:ext cx="4330184" cy="238125"/>
+          <a:off x="508000" y="3127375"/>
+          <a:ext cx="4330187" cy="282167"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -2321,8 +2364,72 @@
         </a:ln>
       </cdr:spPr>
       <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
             <a:rPr lang="fr-CA" sz="1100"/>
@@ -2730,8 +2837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM366"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="X1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A339" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Y3" sqref="Y3:Y366"/>
     </sheetView>
   </sheetViews>
@@ -46324,8 +46431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N101"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="C16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46342,232 +46449,314 @@
     <col min="13" max="13" width="44.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="6"/>
       <c r="N2" s="7"/>
     </row>
-    <row r="9" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="33" t="s">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
     </row>
-    <row r="10" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
+    <row r="9" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
     </row>
-    <row r="11" spans="2:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="42" t="s">
+    <row r="10" spans="1:14" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="B10" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="C10" s="49" t="s">
         <v>124</v>
       </c>
+      <c r="F10" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="44" t="s">
+        <v>152</v>
+      </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="40" t="s">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="C12" s="15">
+      <c r="B11" s="15">
         <v>153</v>
       </c>
-      <c r="D12" s="18">
+      <c r="C11" s="45">
         <v>0.42032967032967034</v>
       </c>
+      <c r="F11" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="G11" s="41">
+        <v>0.42032967032967034</v>
+      </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="41" t="s">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="C13" s="14">
+      <c r="B12" s="14">
         <v>105</v>
       </c>
-      <c r="D13" s="19">
+      <c r="C12" s="46">
         <v>0.28846153846153844</v>
       </c>
+      <c r="F12" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="G12" s="42">
+        <f>G11+C12</f>
+        <v>0.70879120879120872</v>
+      </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="41" t="s">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="29" t="s">
         <v>135</v>
       </c>
-      <c r="C14" s="14">
+      <c r="B13" s="14">
         <v>50</v>
       </c>
-      <c r="D14" s="19">
+      <c r="C13" s="46">
         <v>0.13736263736263737</v>
       </c>
+      <c r="F13" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="G13" s="42">
+        <f>G12+C13</f>
+        <v>0.84615384615384603</v>
+      </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="41" t="s">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="C15" s="14">
+      <c r="B14" s="14">
         <v>27</v>
       </c>
-      <c r="D15" s="19">
+      <c r="C14" s="46">
         <v>7.4175824175824176E-2</v>
       </c>
+      <c r="F14" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="G14" s="42">
+        <f>G13+C14</f>
+        <v>0.92032967032967017</v>
+      </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="41" t="s">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="C16" s="14">
+      <c r="B15" s="14">
         <v>15</v>
       </c>
-      <c r="D16" s="19">
+      <c r="C15" s="46">
         <v>4.1208791208791208E-2</v>
       </c>
+      <c r="F15" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="G15" s="42">
+        <f>G14+C15</f>
+        <v>0.96153846153846134</v>
+      </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="41" t="s">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="C17" s="14">
+      <c r="B16" s="14">
         <v>1</v>
       </c>
-      <c r="D17" s="19">
+      <c r="C16" s="46">
         <v>2.7472527472527475E-3</v>
       </c>
+      <c r="F16" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="G16" s="42">
+        <f>G15+C16</f>
+        <v>0.96428571428571408</v>
+      </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="41" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="C18" s="14">
+      <c r="B17" s="14">
         <v>7</v>
       </c>
-      <c r="D18" s="19">
+      <c r="C17" s="46">
         <v>1.9230769230769232E-2</v>
       </c>
+      <c r="F17" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="G17" s="42">
+        <f>G16+C17</f>
+        <v>0.98351648351648335</v>
+      </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="41" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="C19" s="14">
+      <c r="B18" s="14">
         <v>2</v>
       </c>
-      <c r="D19" s="19">
+      <c r="C18" s="46">
         <v>5.4945054945054949E-3</v>
       </c>
+      <c r="F18" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="G18" s="42">
+        <f>G17+C18</f>
+        <v>0.98901098901098883</v>
+      </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="41" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="C20" s="14">
+      <c r="B19" s="14">
         <v>1</v>
       </c>
-      <c r="D20" s="19">
+      <c r="C19" s="46">
         <v>2.7472527472527475E-3</v>
       </c>
+      <c r="F19" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="G19" s="42">
+        <f>G18+C19</f>
+        <v>0.99175824175824157</v>
+      </c>
     </row>
-    <row r="21" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="40" t="s">
+    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="C21" s="15">
+      <c r="B20" s="15">
         <v>3</v>
       </c>
-      <c r="D21" s="18">
+      <c r="C20" s="47">
         <v>8.241758241758242E-3</v>
       </c>
+      <c r="F20" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="G20" s="42">
+        <f>G19+C20</f>
+        <v>0.99999999999999978</v>
+      </c>
     </row>
-    <row r="22" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="17" t="s">
+    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C22" s="16">
+      <c r="B21" s="16">
         <v>364</v>
       </c>
-      <c r="D22" s="20">
+      <c r="C21" s="48">
         <v>1</v>
       </c>
+      <c r="F21" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="G21" s="43">
+        <f>G20</f>
+        <v>0.99999999999999978</v>
+      </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="13" t="s">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E24" s="8"/>
     </row>
-    <row r="25" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="34" t="s">
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="C25" s="35"/>
-      <c r="D25" s="23"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="19"/>
       <c r="E25" s="8"/>
     </row>
-    <row r="26" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="36"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="24"/>
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="34"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="20"/>
       <c r="E26" s="8"/>
     </row>
-    <row r="27" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="38"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="24"/>
+    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="36"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="20"/>
       <c r="E27" s="8"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B28" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="C28" s="27">
-        <f>MIN(C12:C21)</f>
-        <v>1</v>
-      </c>
-      <c r="D28" s="24"/>
+      <c r="C28" s="23">
+        <f>MIN(Réseaux_sociaux__minutes_par_jour)</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="20"/>
       <c r="E28" s="8"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B29" s="12" t="s">
         <v>143</v>
       </c>
       <c r="C29" s="10">
-        <f>MAX(C12:C21)</f>
-        <v>153</v>
-      </c>
-      <c r="D29" s="25"/>
+        <f>MAX(Réseaux_sociaux__minutes_par_jour)</f>
+        <v>500</v>
+      </c>
+      <c r="D29" s="21"/>
       <c r="E29" s="8"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B30" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="C30" s="28">
-        <v>60</v>
-      </c>
-      <c r="D30" s="23"/>
+      <c r="C30" s="40">
+        <v>60</v>
+      </c>
+      <c r="D30" s="19"/>
       <c r="E30" s="8"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B31" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="C31" s="10">
-        <f>AVERAGE(C12:C21)</f>
-        <v>36.4</v>
-      </c>
-      <c r="D31" s="26"/>
+      <c r="C31" s="27">
+        <f>AVERAGE(Réseaux_sociaux__minutes_par_jour)</f>
+        <v>79.013736263736263</v>
+      </c>
+      <c r="D31" s="22"/>
       <c r="E31" s="8"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B32" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="C32" s="10">
-        <f>MEDIAN(C12:C21)</f>
-        <v>11</v>
+      <c r="C32" s="27">
+        <f>MEDIAN(Réseaux_sociaux__minutes_par_jour)</f>
+        <v>60</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -46577,7 +46766,7 @@
       <c r="B33" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="C33" s="32">
+      <c r="C33" s="27">
         <f>_xlfn.STDEV.S(Réseaux_sociaux__minutes_par_jour)</f>
         <v>81.110796095847519</v>
       </c>
@@ -46588,7 +46777,10 @@
       <c r="B34" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="C34" s="10"/>
+      <c r="C34" s="39">
+        <f>C33/C31</f>
+        <v>1.0265404463992385</v>
+      </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
     </row>
@@ -46596,9 +46788,9 @@
       <c r="B35" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="C35" s="10">
-        <f>MAX(C15:C24)</f>
-        <v>364</v>
+      <c r="C35" s="38">
+        <f>(90-C31)/C33</f>
+        <v>0.13544761320406004</v>
       </c>
       <c r="D35" s="8"/>
     </row>
@@ -46649,208 +46841,208 @@
       <c r="C41" s="8"/>
     </row>
     <row r="62" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K62" s="30"/>
-      <c r="L62" s="29"/>
-      <c r="M62" s="31"/>
+      <c r="K62" s="25"/>
+      <c r="L62" s="24"/>
+      <c r="M62" s="26"/>
     </row>
     <row r="63" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K63" s="30"/>
-      <c r="L63" s="29"/>
-      <c r="M63" s="31"/>
+      <c r="K63" s="25"/>
+      <c r="L63" s="24"/>
+      <c r="M63" s="26"/>
     </row>
     <row r="64" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K64" s="30"/>
-      <c r="L64" s="29"/>
-      <c r="M64" s="31"/>
+      <c r="K64" s="25"/>
+      <c r="L64" s="24"/>
+      <c r="M64" s="26"/>
     </row>
     <row r="65" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K65" s="30"/>
-      <c r="L65" s="29"/>
-      <c r="M65" s="31"/>
+      <c r="K65" s="25"/>
+      <c r="L65" s="24"/>
+      <c r="M65" s="26"/>
     </row>
     <row r="66" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K66" s="30"/>
-      <c r="L66" s="29"/>
-      <c r="M66" s="31"/>
+      <c r="K66" s="25"/>
+      <c r="L66" s="24"/>
+      <c r="M66" s="26"/>
     </row>
     <row r="67" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K67" s="30"/>
-      <c r="L67" s="29"/>
-      <c r="M67" s="31"/>
+      <c r="K67" s="25"/>
+      <c r="L67" s="24"/>
+      <c r="M67" s="26"/>
     </row>
     <row r="68" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K68" s="30"/>
-      <c r="L68" s="29"/>
-      <c r="M68" s="31"/>
+      <c r="K68" s="25"/>
+      <c r="L68" s="24"/>
+      <c r="M68" s="26"/>
     </row>
     <row r="69" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K69" s="30"/>
-      <c r="L69" s="29"/>
-      <c r="M69" s="31"/>
+      <c r="K69" s="25"/>
+      <c r="L69" s="24"/>
+      <c r="M69" s="26"/>
     </row>
     <row r="70" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K70" s="30"/>
-      <c r="L70" s="29"/>
-      <c r="M70" s="31"/>
+      <c r="K70" s="25"/>
+      <c r="L70" s="24"/>
+      <c r="M70" s="26"/>
     </row>
     <row r="71" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K71" s="30"/>
-      <c r="L71" s="29"/>
-      <c r="M71" s="31"/>
+      <c r="K71" s="25"/>
+      <c r="L71" s="24"/>
+      <c r="M71" s="26"/>
     </row>
     <row r="72" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K72" s="30"/>
-      <c r="L72" s="29"/>
-      <c r="M72" s="31"/>
+      <c r="K72" s="25"/>
+      <c r="L72" s="24"/>
+      <c r="M72" s="26"/>
     </row>
     <row r="73" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K73" s="30"/>
-      <c r="L73" s="29"/>
-      <c r="M73" s="31"/>
+      <c r="K73" s="25"/>
+      <c r="L73" s="24"/>
+      <c r="M73" s="26"/>
     </row>
     <row r="74" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K74" s="30"/>
-      <c r="L74" s="29"/>
-      <c r="M74" s="31"/>
+      <c r="K74" s="25"/>
+      <c r="L74" s="24"/>
+      <c r="M74" s="26"/>
     </row>
     <row r="75" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K75" s="30"/>
-      <c r="L75" s="29"/>
-      <c r="M75" s="31"/>
+      <c r="K75" s="25"/>
+      <c r="L75" s="24"/>
+      <c r="M75" s="26"/>
     </row>
     <row r="76" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K76" s="30"/>
-      <c r="L76" s="29"/>
-      <c r="M76" s="31"/>
+      <c r="K76" s="25"/>
+      <c r="L76" s="24"/>
+      <c r="M76" s="26"/>
     </row>
     <row r="77" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K77" s="30"/>
-      <c r="L77" s="29"/>
-      <c r="M77" s="31"/>
+      <c r="K77" s="25"/>
+      <c r="L77" s="24"/>
+      <c r="M77" s="26"/>
     </row>
     <row r="78" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K78" s="30"/>
-      <c r="L78" s="29"/>
-      <c r="M78" s="31"/>
+      <c r="K78" s="25"/>
+      <c r="L78" s="24"/>
+      <c r="M78" s="26"/>
     </row>
     <row r="79" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K79" s="30"/>
-      <c r="L79" s="29"/>
-      <c r="M79" s="31"/>
+      <c r="K79" s="25"/>
+      <c r="L79" s="24"/>
+      <c r="M79" s="26"/>
     </row>
     <row r="80" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K80" s="30"/>
-      <c r="L80" s="29"/>
-      <c r="M80" s="31"/>
+      <c r="K80" s="25"/>
+      <c r="L80" s="24"/>
+      <c r="M80" s="26"/>
     </row>
     <row r="81" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K81" s="30"/>
-      <c r="L81" s="29"/>
-      <c r="M81" s="31"/>
+      <c r="K81" s="25"/>
+      <c r="L81" s="24"/>
+      <c r="M81" s="26"/>
     </row>
     <row r="82" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K82" s="30"/>
-      <c r="L82" s="29"/>
-      <c r="M82" s="31"/>
+      <c r="K82" s="25"/>
+      <c r="L82" s="24"/>
+      <c r="M82" s="26"/>
     </row>
     <row r="83" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K83" s="30"/>
-      <c r="L83" s="29"/>
-      <c r="M83" s="31"/>
+      <c r="K83" s="25"/>
+      <c r="L83" s="24"/>
+      <c r="M83" s="26"/>
     </row>
     <row r="84" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K84" s="30"/>
-      <c r="L84" s="29"/>
-      <c r="M84" s="31"/>
+      <c r="K84" s="25"/>
+      <c r="L84" s="24"/>
+      <c r="M84" s="26"/>
     </row>
     <row r="85" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K85" s="30"/>
-      <c r="L85" s="29"/>
-      <c r="M85" s="31"/>
+      <c r="K85" s="25"/>
+      <c r="L85" s="24"/>
+      <c r="M85" s="26"/>
     </row>
     <row r="86" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K86" s="30"/>
-      <c r="L86" s="29"/>
-      <c r="M86" s="31"/>
+      <c r="K86" s="25"/>
+      <c r="L86" s="24"/>
+      <c r="M86" s="26"/>
     </row>
     <row r="87" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K87" s="30"/>
-      <c r="L87" s="29"/>
-      <c r="M87" s="31"/>
+      <c r="K87" s="25"/>
+      <c r="L87" s="24"/>
+      <c r="M87" s="26"/>
     </row>
     <row r="88" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K88" s="30"/>
-      <c r="L88" s="29"/>
-      <c r="M88" s="31"/>
+      <c r="K88" s="25"/>
+      <c r="L88" s="24"/>
+      <c r="M88" s="26"/>
     </row>
     <row r="89" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K89" s="30"/>
-      <c r="L89" s="29"/>
-      <c r="M89" s="31"/>
+      <c r="K89" s="25"/>
+      <c r="L89" s="24"/>
+      <c r="M89" s="26"/>
     </row>
     <row r="90" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K90" s="30"/>
-      <c r="L90" s="29"/>
-      <c r="M90" s="31"/>
+      <c r="K90" s="25"/>
+      <c r="L90" s="24"/>
+      <c r="M90" s="26"/>
     </row>
     <row r="91" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K91" s="30"/>
-      <c r="L91" s="29"/>
-      <c r="M91" s="31"/>
+      <c r="K91" s="25"/>
+      <c r="L91" s="24"/>
+      <c r="M91" s="26"/>
     </row>
     <row r="92" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K92" s="30"/>
-      <c r="L92" s="29"/>
-      <c r="M92" s="31"/>
+      <c r="K92" s="25"/>
+      <c r="L92" s="24"/>
+      <c r="M92" s="26"/>
     </row>
     <row r="93" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K93" s="30"/>
-      <c r="L93" s="29"/>
-      <c r="M93" s="31"/>
+      <c r="K93" s="25"/>
+      <c r="L93" s="24"/>
+      <c r="M93" s="26"/>
     </row>
     <row r="94" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K94" s="30"/>
-      <c r="L94" s="29"/>
-      <c r="M94" s="31"/>
+      <c r="K94" s="25"/>
+      <c r="L94" s="24"/>
+      <c r="M94" s="26"/>
     </row>
     <row r="95" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K95" s="30"/>
-      <c r="L95" s="29"/>
-      <c r="M95" s="31"/>
+      <c r="K95" s="25"/>
+      <c r="L95" s="24"/>
+      <c r="M95" s="26"/>
     </row>
     <row r="96" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K96" s="30"/>
-      <c r="L96" s="29"/>
-      <c r="M96" s="31"/>
+      <c r="K96" s="25"/>
+      <c r="L96" s="24"/>
+      <c r="M96" s="26"/>
     </row>
     <row r="97" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K97" s="30"/>
-      <c r="L97" s="29"/>
-      <c r="M97" s="31"/>
+      <c r="K97" s="25"/>
+      <c r="L97" s="24"/>
+      <c r="M97" s="26"/>
     </row>
     <row r="98" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K98" s="30"/>
-      <c r="L98" s="29"/>
-      <c r="M98" s="31"/>
+      <c r="K98" s="25"/>
+      <c r="L98" s="24"/>
+      <c r="M98" s="26"/>
     </row>
     <row r="99" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K99" s="30"/>
-      <c r="L99" s="29"/>
-      <c r="M99" s="31"/>
+      <c r="K99" s="25"/>
+      <c r="L99" s="24"/>
+      <c r="M99" s="26"/>
     </row>
     <row r="100" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K100" s="30"/>
-      <c r="L100" s="29"/>
-      <c r="M100" s="31"/>
+      <c r="K100" s="25"/>
+      <c r="L100" s="24"/>
+      <c r="M100" s="26"/>
     </row>
     <row r="101" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K101" s="30"/>
-      <c r="L101" s="29"/>
-      <c r="M101" s="31"/>
+      <c r="K101" s="25"/>
+      <c r="L101" s="24"/>
+      <c r="M101" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="A8:C9"/>
     <mergeCell ref="B25:C27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
